--- a/data/output/DEP_order_quantity.xlsx
+++ b/data/output/DEP_order_quantity.xlsx
@@ -416,16 +416,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4082.402829198418</v>
+        <v>4078.163055317799</v>
       </c>
       <c r="C3">
-        <v>2785.015535862563</v>
+        <v>2776.997125794085</v>
       </c>
       <c r="D3">
-        <v>4153.109017288497</v>
+        <v>4155.165683246522</v>
       </c>
       <c r="E3">
-        <v>3429.032324295693</v>
+        <v>3424.451499426018</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -433,16 +433,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5889.453125969108</v>
+        <v>5877.251865422742</v>
       </c>
       <c r="C4">
-        <v>3300.937841048879</v>
+        <v>3234.337543683298</v>
       </c>
       <c r="D4">
-        <v>6107.889530123783</v>
+        <v>6112.602084170954</v>
       </c>
       <c r="E4">
-        <v>4605.704339527792</v>
+        <v>4569.6846635732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -450,16 +450,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7392.64793409559</v>
+        <v>7365.397629696299</v>
       </c>
       <c r="C5">
-        <v>3397.610839628633</v>
+        <v>3246.877835281603</v>
       </c>
       <c r="D5">
-        <v>7847.844457508003</v>
+        <v>7852.653286296849</v>
       </c>
       <c r="E5">
-        <v>5441.626624210484</v>
+        <v>5358.685483014009</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -467,16 +467,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8542.192732402169</v>
+        <v>8490.927722814482</v>
       </c>
       <c r="C6">
-        <v>3167.855848387165</v>
+        <v>2937.523349491647</v>
       </c>
       <c r="D6">
-        <v>9253.546438743582</v>
+        <v>9249.304337510855</v>
       </c>
       <c r="E6">
-        <v>5942.962801514306</v>
+        <v>5811.074736452788</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -484,16 +484,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>9369.996645816005</v>
+        <v>9285.786715293187</v>
       </c>
       <c r="C7">
-        <v>2682.330608511355</v>
+        <v>2390.987081313526</v>
       </c>
       <c r="D7">
-        <v>10240.8211286749</v>
+        <v>10211.86242358725</v>
       </c>
       <c r="E7">
-        <v>6131.908360274272</v>
+        <v>5954.659015585408</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -501,16 +501,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>9962.936462103822</v>
+        <v>9837.986330556774</v>
       </c>
       <c r="C8">
-        <v>2002.614262817831</v>
+        <v>1671.211075231429</v>
       </c>
       <c r="D8">
-        <v>10790.4000902339</v>
+        <v>10717.54420809721</v>
       </c>
       <c r="E8">
-        <v>6055.025958857419</v>
+        <v>5836.579053076905</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -518,16 +518,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>10417.23489079885</v>
+        <v>10246.41947636716</v>
       </c>
       <c r="C9">
-        <v>1205.279691483362</v>
+        <v>851.0618269080505</v>
       </c>
       <c r="D9">
-        <v>10947.56780791372</v>
+        <v>10811.79696790654</v>
       </c>
       <c r="E9">
-        <v>5785.305010638294</v>
+        <v>5528.551048270199</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -535,16 +535,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>10805.32679393948</v>
+        <v>10586.41549347389</v>
       </c>
       <c r="C10">
-        <v>346.1927440466461</v>
+        <v>-19.4521312935758</v>
       </c>
       <c r="D10">
-        <v>10797.40978902154</v>
+        <v>10582.86624594758</v>
       </c>
       <c r="E10">
-        <v>5389.848785138824</v>
+        <v>5096.111088344882</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -552,16 +552,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>11167.39842946362</v>
+        <v>10899.40077546352</v>
       </c>
       <c r="C11">
-        <v>-541.5097810023799</v>
+        <v>-912.2542230136232</v>
       </c>
       <c r="D11">
-        <v>10433.22616428711</v>
+        <v>10129.87566638046</v>
       </c>
       <c r="E11">
-        <v>4918.815732133092</v>
+        <v>4588.572199285742</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -569,16 +569,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>11458.10670549561</v>
+        <v>11200.962100491</v>
       </c>
       <c r="C12">
-        <v>-1441.097487384844</v>
+        <v>-1813.893065765653</v>
       </c>
       <c r="D12">
-        <v>9933.078652296419</v>
+        <v>9538.283332263443</v>
       </c>
       <c r="E12">
-        <v>4390.637519354035</v>
+        <v>4038.334163422168</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -586,16 +586,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>11675.86100152616</v>
+        <v>11491.51633516478</v>
       </c>
       <c r="C13">
-        <v>-2345.162686713791</v>
+        <v>-2718.709042386823</v>
       </c>
       <c r="D13">
-        <v>9350.539691336115</v>
+        <v>8849.447620604209</v>
       </c>
       <c r="E13">
-        <v>3822.527242271185</v>
+        <v>3459.026694432664</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -603,16 +603,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>11826.25823584607</v>
+        <v>11733.60121337213</v>
       </c>
       <c r="C14">
-        <v>-3250.772315644012</v>
+        <v>-3624.570790085309</v>
       </c>
       <c r="D14">
-        <v>8718.692140841111</v>
+        <v>8083.199728524585</v>
       </c>
       <c r="E14">
-        <v>3225.75172726062</v>
+        <v>2848.373128970527</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -620,16 +620,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>11934.26719760451</v>
+        <v>11909.57974707755</v>
       </c>
       <c r="C15">
-        <v>-4156.873433277797</v>
+        <v>-4530.750117208849</v>
       </c>
       <c r="D15">
-        <v>8020.012204016497</v>
+        <v>7259.408877411595</v>
       </c>
       <c r="E15">
-        <v>2602.004310597145</v>
+        <v>2207.860274091399</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -637,16 +637,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>11956.90397990882</v>
+        <v>12003.17376139535</v>
       </c>
       <c r="C16">
-        <v>-5063.119767226604</v>
+        <v>-5437.018994925476</v>
       </c>
       <c r="D16">
-        <v>7267.680853903443</v>
+        <v>6398.653370804434</v>
       </c>
       <c r="E16">
-        <v>1945.131234122392</v>
+        <v>1539.204958473913</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -654,16 +654,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>11885.07505990627</v>
+        <v>12004.72476207088</v>
       </c>
       <c r="C17">
-        <v>-5969.406150129756</v>
+        <v>-6343.311446760193</v>
       </c>
       <c r="D17">
-        <v>6474.181761877586</v>
+        <v>5515.981398900207</v>
       </c>
       <c r="E17">
-        <v>1256.333433135776</v>
+        <v>844.117826204091</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -671,16 +671,16 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>11716.6236321326</v>
+        <v>11913.08297401604</v>
       </c>
       <c r="C18">
-        <v>-6875.702889869093</v>
+        <v>-7249.609719138727</v>
       </c>
       <c r="D18">
-        <v>5651.661319344876</v>
+        <v>4621.244359818946</v>
       </c>
       <c r="E18">
-        <v>538.2537936962399</v>
+        <v>124.8746030790139</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -688,16 +688,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>11457.07692338341</v>
+        <v>11736.02260508127</v>
       </c>
       <c r="C19">
-        <v>-7782.002151039693</v>
+        <v>-8155.90934481122</v>
       </c>
       <c r="D19">
-        <v>4801.071402472237</v>
+        <v>3720.299812553563</v>
       </c>
       <c r="E19">
-        <v>-207.6105206398051</v>
+        <v>-615.2634897119618</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -705,16 +705,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>11120.83428657071</v>
+        <v>11486.65901968041</v>
       </c>
       <c r="C20">
-        <v>-8688.301992124523</v>
+        <v>-9062.209267815673</v>
       </c>
       <c r="D20">
-        <v>3929.829967748821</v>
+        <v>2816.354115530954</v>
       </c>
       <c r="E20">
-        <v>-976.1023351241388</v>
+        <v>-1372.509931076941</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -722,16 +722,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>10720.61578916897</v>
+        <v>11185.47774000971</v>
       </c>
       <c r="C21">
-        <v>-9594.601959600419</v>
+        <v>-9968.509252743268</v>
       </c>
       <c r="D21">
-        <v>3044.435024303519</v>
+        <v>1911.038980561272</v>
       </c>
       <c r="E21">
-        <v>-1762.680635126767</v>
+        <v>-2141.81698170505</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -739,16 +739,16 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>10288.11786252939</v>
+        <v>10843.437517573</v>
       </c>
       <c r="C22">
-        <v>-10500.90195325218</v>
+        <v>-10874.80924992884</v>
       </c>
       <c r="D22">
-        <v>2149.980990706888</v>
+        <v>1005.131929016305</v>
       </c>
       <c r="E22">
-        <v>-2558.876392280626</v>
+        <v>-2920.508843543992</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -756,16 +756,16 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>9789.446305064794</v>
+        <v>10431.35667448999</v>
       </c>
       <c r="C23">
-        <v>-11407.20195206801</v>
+        <v>-11781.10924942651</v>
       </c>
       <c r="D23">
-        <v>1250.079285650478</v>
+        <v>98.98177435344769</v>
       </c>
       <c r="E23">
-        <v>-3371.422628594018</v>
+        <v>-3715.090325218639</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -773,16 +773,16 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>9224.245158200225</v>
+        <v>9946.610745085047</v>
       </c>
       <c r="C24">
-        <v>-12313.50195185651</v>
+        <v>-12687.40924934065</v>
       </c>
       <c r="D24">
-        <v>347.0823485729488</v>
+        <v>-807.2635081345834</v>
       </c>
       <c r="E24">
-        <v>-4199.796504419914</v>
+        <v>-4526.116535907504</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -790,16 +790,16 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>8594.459843487726</v>
+        <v>9389.256960046798</v>
       </c>
       <c r="C25">
-        <v>-13219.80195182028</v>
+        <v>-13593.70924932657</v>
       </c>
       <c r="D25">
-        <v>-557.5839294798934</v>
+        <v>-1713.544341549798</v>
       </c>
       <c r="E25">
-        <v>-5043.192742463199</v>
+        <v>-5353.559264576521</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -807,16 +807,16 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7905.066073956135</v>
+        <v>8762.923326349483</v>
       </c>
       <c r="C26">
-        <v>-14126.10195181431</v>
+        <v>-14500.00924932435</v>
       </c>
       <c r="D26">
-        <v>-1463.108062010549</v>
+        <v>-2619.837890954466</v>
       </c>
       <c r="E26">
-        <v>-5900.278864076847</v>
+        <v>-6196.592824334612</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -824,16 +824,16 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7163.40331801349</v>
+        <v>8074.286667026267</v>
       </c>
       <c r="C27">
-        <v>-15032.40195181337</v>
+        <v>-15406.30924932402</v>
       </c>
       <c r="D27">
-        <v>-2369.053580529559</v>
+        <v>-3526.135801940673</v>
       </c>
       <c r="E27">
-        <v>-6769.284418222749</v>
+        <v>-7053.706292268451</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -841,16 +841,16 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>6378.062227497874</v>
+        <v>7331.988368040733</v>
       </c>
       <c r="C28">
-        <v>-15938.70195181322</v>
+        <v>-16312.60924932397</v>
       </c>
       <c r="D28">
-        <v>-3275.197493537216</v>
+        <v>-4432.435150052504</v>
       </c>
       <c r="E28">
-        <v>-7648.21096582873</v>
+        <v>-7922.946200157877</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -858,16 +858,16 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>5557.824844289029</v>
+        <v>6545.479059555728</v>
       </c>
       <c r="C29">
-        <v>-16845.0019518132</v>
+        <v>-17218.90924932396</v>
       </c>
       <c r="D29">
-        <v>-4181.431148503525</v>
+        <v>-5338.734953780702</v>
       </c>
       <c r="E29">
-        <v>-8535.046140687245</v>
+        <v>-8802.176710860682</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -875,16 +875,16 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>4710.859081108465</v>
+        <v>5724.035891021816</v>
       </c>
       <c r="C30">
-        <v>-17751.3019518132</v>
+        <v>-18125.20924932396</v>
       </c>
       <c r="D30">
-        <v>-5087.703886518921</v>
+        <v>-6245.034896695797</v>
       </c>
       <c r="E30">
-        <v>-9427.931225332088</v>
+        <v>-9689.301359715771</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -892,16 +892,16 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>3844.221617190837</v>
+        <v>4876.060586645617</v>
       </c>
       <c r="C31">
-        <v>-18657.6019518132</v>
+        <v>-19031.50924932396</v>
       </c>
       <c r="D31">
-        <v>-5993.993042372771</v>
+        <v>-7151.334880639126</v>
       </c>
       <c r="E31">
-        <v>-10325.26578972982</v>
+        <v>-10582.42156033758</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -909,16 +909,16 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2963.644795689321</v>
+        <v>4008.679227486224</v>
       </c>
       <c r="C32">
-        <v>-19563.9019518132</v>
+        <v>-19937.80924932396</v>
       </c>
       <c r="D32">
-        <v>-6900.288861654444</v>
+        <v>-8057.634876266711</v>
       </c>
       <c r="E32">
-        <v>-11225.75197871753</v>
+        <v>-11479.92700465222</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -926,16 +926,16 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2073.541627925635</v>
+        <v>3127.605652538885</v>
       </c>
       <c r="C33">
-        <v>-20470.2019518132</v>
+        <v>-20844.10924932396</v>
       </c>
       <c r="D33">
-        <v>-7806.587297770744</v>
+        <v>-8963.934875112835</v>
       </c>
       <c r="E33">
-        <v>-12128.3915340001</v>
+        <v>-12380.52651824502</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -943,16 +943,16 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1177.149748815966</v>
+        <v>2237.198761247451</v>
       </c>
       <c r="C34">
-        <v>-21376.5019518132</v>
+        <v>-21750.40924932396</v>
       </c>
       <c r="D34">
-        <v>-8712.886729582904</v>
+        <v>-9870.234874817474</v>
       </c>
       <c r="E34">
-        <v>-13032.45242238834</v>
+        <v>-13283.23510776256</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -960,16 +960,16 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>276.7422689147388</v>
+        <v>1340.637061322257</v>
       </c>
       <c r="C35">
-        <v>-22282.8019518132</v>
+        <v>-22656.70924932396</v>
       </c>
       <c r="D35">
-        <v>-9619.186528900704</v>
+        <v>-10776.53487474408</v>
       </c>
       <c r="E35">
-        <v>-13937.42082160973</v>
+        <v>-14187.33451672824</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -977,16 +977,16 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-626.1485672528433</v>
+        <v>440.1439670728432</v>
       </c>
       <c r="C36">
-        <v>-23189.1019518132</v>
+        <v>-23563.00924932396</v>
       </c>
       <c r="D36">
-        <v>-10525.486459938</v>
+        <v>-11682.83487472634</v>
       </c>
       <c r="E36">
-        <v>-14842.9504255995</v>
+        <v>-15092.32231392398</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -994,16 +994,16 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-1530.528510882999</v>
+        <v>-462.7842674526546</v>
       </c>
       <c r="C37">
-        <v>-24095.4019518132</v>
+        <v>-24469.30924932396</v>
       </c>
       <c r="D37">
-        <v>-11431.78643686339</v>
+        <v>-12589.13487472219</v>
       </c>
       <c r="E37">
-        <v>-15748.81653915221</v>
+        <v>-15997.86038660988</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1011,16 +1011,16 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-2435.77515707217</v>
+        <v>-1367.176699134296</v>
       </c>
       <c r="C38">
-        <v>-25001.70195181319</v>
+        <v>-25375.60924932396</v>
       </c>
       <c r="D38">
-        <v>-12338.08642934082</v>
+        <v>-13495.43487472123</v>
       </c>
       <c r="E38">
-        <v>-16654.87850790435</v>
+        <v>-16903.7293280398</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1028,16 +1028,16 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-3341.511914540875</v>
+        <v>-2272.424576271365</v>
       </c>
       <c r="C39">
-        <v>-25908.0019518132</v>
+        <v>-26281.90924932396</v>
       </c>
       <c r="D39">
-        <v>-13244.38642694979</v>
+        <v>-14401.73487472102</v>
       </c>
       <c r="E39">
-        <v>-17561.05122979466</v>
+        <v>-17809.79157688178</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1045,16 +1045,16 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-4247.518193168435</v>
+        <v>-3178.158515244064</v>
       </c>
       <c r="C40">
-        <v>-26814.3019518132</v>
+        <v>-27188.20924932395</v>
       </c>
       <c r="D40">
-        <v>-14150.68642620842</v>
+        <v>-15308.03487472097</v>
       </c>
       <c r="E40">
-        <v>-18467.28485656116</v>
+        <v>-18715.96366248179</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1062,16 +1062,16 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-5153.668726691201</v>
+        <v>-4084.161273281657</v>
       </c>
       <c r="C41">
-        <v>-27720.6019518132</v>
+        <v>-28094.50924932396</v>
       </c>
       <c r="D41">
-        <v>-15056.98642598405</v>
+        <v>-16214.33487472096</v>
       </c>
       <c r="E41">
-        <v>-19373.55108114403</v>
+        <v>-19622.19649388082</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1079,16 +1079,16 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-6059.894465740377</v>
+        <v>-4990.308854264476</v>
       </c>
       <c r="C42">
-        <v>-28626.9019518132</v>
+        <v>-29000.80924932396</v>
       </c>
       <c r="D42">
-        <v>-15963.28642591775</v>
+        <v>-17120.63487472096</v>
       </c>
       <c r="E42">
-        <v>-20279.83430017142</v>
+        <v>-20528.46205132747</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1096,16 +1096,16 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-6966.158423052195</v>
+        <v>-5896.532492703096</v>
       </c>
       <c r="C43">
-        <v>-29533.2019518132</v>
+        <v>-29907.10924932396</v>
       </c>
       <c r="D43">
-        <v>-16869.58642589861</v>
+        <v>-18026.93487472096</v>
       </c>
       <c r="E43">
-        <v>-21186.12615549905</v>
+        <v>-21434.744795691</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1113,16 +1113,16 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-7872.441325392279</v>
+        <v>-6802.795095958907</v>
       </c>
       <c r="C44">
-        <v>-30439.5019518132</v>
+        <v>-30813.40924932396</v>
       </c>
       <c r="D44">
-        <v>-17775.88642589321</v>
+        <v>-18933.23487472097</v>
       </c>
       <c r="E44">
-        <v>-22092.42229189144</v>
+        <v>-22341.0363450437</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1130,16 +1130,16 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-8778.733394291521</v>
+        <v>-7709.077184734691</v>
       </c>
       <c r="C45">
-        <v>-31345.8019518132</v>
+        <v>-31719.70924932395</v>
       </c>
       <c r="D45">
-        <v>-18682.18642589173</v>
+        <v>-19839.53487472095</v>
       </c>
       <c r="E45">
-        <v>-22998.72049967795</v>
+        <v>-23247.33229759406</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1147,16 +1147,16 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-9685.029795025999</v>
+        <v>-8615.368791083922</v>
       </c>
       <c r="C46">
-        <v>-32252.1019518132</v>
+        <v>-32626.00924932396</v>
       </c>
       <c r="D46">
-        <v>-19588.48642589131</v>
+        <v>-20745.83487472095</v>
       </c>
       <c r="E46">
-        <v>-23905.0196863417</v>
+        <v>-24153.63040085723</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1164,16 +1164,16 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-10591.32819629122</v>
+        <v>-9521.664940690895</v>
       </c>
       <c r="C47">
-        <v>-33158.4019518132</v>
+        <v>-33532.30924932396</v>
       </c>
       <c r="D47">
-        <v>-20494.78642589122</v>
+        <v>-21652.13487472095</v>
       </c>
       <c r="E47">
-        <v>-24811.31932507109</v>
+        <v>-25059.9295307731</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1181,16 +1181,16 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-11497.62750092742</v>
+        <v>-10427.96321097363</v>
       </c>
       <c r="C48">
-        <v>-34064.7019518132</v>
+        <v>-34438.60924932396</v>
       </c>
       <c r="D48">
-        <v>-21401.08642589118</v>
+        <v>-22558.43487472096</v>
       </c>
       <c r="E48">
-        <v>-25717.61916793777</v>
+        <v>-25966.22913990403</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1198,16 +1198,16 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-12403.92720464589</v>
+        <v>-11334.26244969855</v>
       </c>
       <c r="C49">
-        <v>-34971.0019518132</v>
+        <v>-35344.90924932396</v>
       </c>
       <c r="D49">
-        <v>-22307.38642589117</v>
+        <v>-23464.73487472095</v>
       </c>
       <c r="E49">
-        <v>-26623.9191009862</v>
+        <v>-26872.52896787657</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1215,16 +1215,16 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-13310.22708092847</v>
+        <v>-12240.56212131716</v>
       </c>
       <c r="C50">
-        <v>-35877.3019518132</v>
+        <v>-36251.20924932396</v>
       </c>
       <c r="D50">
-        <v>-23213.68642589118</v>
+        <v>-24371.03487472096</v>
       </c>
       <c r="E50">
-        <v>-27530.21907302943</v>
+        <v>-27778.82889367131</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1232,16 +1232,16 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-14216.52703028059</v>
+        <v>-13146.86198243269</v>
       </c>
       <c r="C51">
-        <v>-36783.60195181319</v>
+        <v>-37157.50924932396</v>
       </c>
       <c r="D51">
-        <v>-24119.98642589117</v>
+        <v>-25277.33487472095</v>
       </c>
       <c r="E51">
-        <v>-28436.51906158438</v>
+        <v>-28685.12886228719</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1249,16 +1249,16 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-15122.82700994485</v>
+        <v>-14053.16192481861</v>
       </c>
       <c r="C52">
-        <v>-37689.9019518132</v>
+        <v>-38063.80924932396</v>
       </c>
       <c r="D52">
-        <v>-25026.28642589117</v>
+        <v>-26183.63487472095</v>
       </c>
       <c r="E52">
-        <v>-29342.81905698906</v>
+        <v>-29591.42884926797</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1266,16 +1266,16 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-16029.1270019339</v>
+        <v>-14959.46190136771</v>
       </c>
       <c r="C53">
-        <v>-38596.2019518132</v>
+        <v>-38970.10924932396</v>
       </c>
       <c r="D53">
-        <v>-25932.58642589117</v>
+        <v>-27089.93487472096</v>
       </c>
       <c r="E53">
-        <v>-30249.1190551788</v>
+        <v>-30497.72884396871</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1283,16 +1283,16 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-16935.42699883655</v>
+        <v>-15865.76189199863</v>
       </c>
       <c r="C54">
-        <v>-39502.5019518132</v>
+        <v>-39876.40924932396</v>
       </c>
       <c r="D54">
-        <v>-26838.88642589117</v>
+        <v>-27996.23487472095</v>
       </c>
       <c r="E54">
-        <v>-31155.41905447888</v>
+        <v>-31404.02884185155</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1300,16 +1300,16 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-17841.7269976608</v>
+        <v>-16772.06188832338</v>
       </c>
       <c r="C55">
-        <v>-40408.8019518132</v>
+        <v>-40782.70924932396</v>
       </c>
       <c r="D55">
-        <v>-27745.18642589117</v>
+        <v>-28902.53487472096</v>
       </c>
       <c r="E55">
-        <v>-32061.7190542132</v>
+        <v>-32310.32884102105</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1317,16 +1317,16 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-18748.02699722247</v>
+        <v>-17678.36188690737</v>
       </c>
       <c r="C56">
-        <v>-41315.10195181319</v>
+        <v>-41689.00924932396</v>
       </c>
       <c r="D56">
-        <v>-28651.48642589118</v>
+        <v>-29808.83487472097</v>
       </c>
       <c r="E56">
-        <v>-32968.01905411415</v>
+        <v>-33216.62884070107</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1334,16 +1334,16 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-19654.3269970619</v>
+        <v>-18584.66188637136</v>
       </c>
       <c r="C57">
-        <v>-42221.4019518132</v>
+        <v>-42595.30924932396</v>
       </c>
       <c r="D57">
-        <v>-29557.78642589117</v>
+        <v>-30715.13487472096</v>
       </c>
       <c r="E57">
-        <v>-33874.31905407786</v>
+        <v>-34122.92884057994</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1351,16 +1351,16 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-20560.62699700411</v>
+        <v>-19490.96188617196</v>
       </c>
       <c r="C58">
-        <v>-43127.7019518132</v>
+        <v>-43501.60924932396</v>
       </c>
       <c r="D58">
-        <v>-30464.08642589118</v>
+        <v>-31621.43487472096</v>
       </c>
       <c r="E58">
-        <v>-34780.61905406481</v>
+        <v>-35029.22884053488</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1368,16 +1368,16 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-21466.92699698366</v>
+        <v>-20397.26188609902</v>
       </c>
       <c r="C59">
-        <v>-44034.0019518132</v>
+        <v>-44407.90924932396</v>
       </c>
       <c r="D59">
-        <v>-31370.38642589117</v>
+        <v>-32527.73487472096</v>
       </c>
       <c r="E59">
-        <v>-35686.91905406018</v>
+        <v>-35935.5288405184</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1385,16 +1385,16 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-22373.22699697654</v>
+        <v>-21303.56188607281</v>
       </c>
       <c r="C60">
-        <v>-44940.3019518132</v>
+        <v>-45314.20924932396</v>
       </c>
       <c r="D60">
-        <v>-32276.68642589118</v>
+        <v>-33434.03487472096</v>
       </c>
       <c r="E60">
-        <v>-36593.21905405857</v>
+        <v>-36841.82884051248</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1402,16 +1402,16 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-23279.52699697411</v>
+        <v>-22209.86188606352</v>
       </c>
       <c r="C61">
-        <v>-45846.60195181319</v>
+        <v>-46220.50924932396</v>
       </c>
       <c r="D61">
-        <v>-33182.98642589118</v>
+        <v>-34340.33487472095</v>
       </c>
       <c r="E61">
-        <v>-37499.51905405802</v>
+        <v>-37748.12884051038</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1419,16 +1419,16 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-24185.8269969733</v>
+        <v>-23116.1618860603</v>
       </c>
       <c r="C62">
-        <v>-46752.9019518132</v>
+        <v>-47126.80924932396</v>
       </c>
       <c r="D62">
-        <v>-34089.28642589117</v>
+        <v>-35246.63487472096</v>
       </c>
       <c r="E62">
-        <v>-38405.81905405784</v>
+        <v>-38654.42884050965</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1436,16 +1436,16 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-25092.12699697302</v>
+        <v>-24022.46188605919</v>
       </c>
       <c r="C63">
-        <v>-47659.20195181319</v>
+        <v>-48033.10924932396</v>
       </c>
       <c r="D63">
-        <v>-34995.58642589118</v>
+        <v>-36152.93487472096</v>
       </c>
       <c r="E63">
-        <v>-39312.11905405778</v>
+        <v>-39560.7288405094</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1453,16 +1453,16 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-25998.42699697294</v>
+        <v>-24928.76188605882</v>
       </c>
       <c r="C64">
-        <v>-48565.5019518132</v>
+        <v>-48939.40924932396</v>
       </c>
       <c r="D64">
-        <v>-35901.88642589116</v>
+        <v>-37059.23487472096</v>
       </c>
       <c r="E64">
-        <v>-40218.41905405775</v>
+        <v>-40467.02884050932</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1470,16 +1470,16 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-26904.7269969729</v>
+        <v>-25835.0618860587</v>
       </c>
       <c r="C65">
-        <v>-49471.80195181319</v>
+        <v>-49845.70924932395</v>
       </c>
       <c r="D65">
-        <v>-36808.18642589117</v>
+        <v>-37965.53487472095</v>
       </c>
       <c r="E65">
-        <v>-41124.71905405774</v>
+        <v>-41373.32884050929</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1487,16 +1487,16 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-27811.02699697289</v>
+        <v>-26741.36188605866</v>
       </c>
       <c r="C66">
-        <v>-50378.10195181319</v>
+        <v>-50752.00924932396</v>
       </c>
       <c r="D66">
-        <v>-37714.48642589117</v>
+        <v>-38871.83487472095</v>
       </c>
       <c r="E66">
-        <v>-42031.01905405775</v>
+        <v>-42279.62884050928</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1504,16 +1504,16 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-28717.32699697289</v>
+        <v>-27647.66188605864</v>
       </c>
       <c r="C67">
-        <v>-51284.4019518132</v>
+        <v>-51658.30924932395</v>
       </c>
       <c r="D67">
-        <v>-38620.78642589117</v>
+        <v>-39778.13487472096</v>
       </c>
       <c r="E67">
-        <v>-42937.31905405775</v>
+        <v>-43185.92884050927</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1521,16 +1521,16 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-29623.6269969729</v>
+        <v>-28553.96188605863</v>
       </c>
       <c r="C68">
-        <v>-52190.70195181319</v>
+        <v>-52564.60924932396</v>
       </c>
       <c r="D68">
-        <v>-39527.08642589116</v>
+        <v>-40684.43487472096</v>
       </c>
       <c r="E68">
-        <v>-43843.61905405774</v>
+        <v>-44092.22884050927</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1538,16 +1538,16 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-30529.9269969729</v>
+        <v>-29460.26188605863</v>
       </c>
       <c r="C69">
-        <v>-53097.0019518132</v>
+        <v>-53470.90924932396</v>
       </c>
       <c r="D69">
-        <v>-40433.38642589118</v>
+        <v>-41590.73487472095</v>
       </c>
       <c r="E69">
-        <v>-44749.91905405775</v>
+        <v>-44998.52884050927</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1555,16 +1555,16 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-31436.22699697289</v>
+        <v>-30366.56188605863</v>
       </c>
       <c r="C70">
-        <v>-54003.30195181319</v>
+        <v>-54377.20924932396</v>
       </c>
       <c r="D70">
-        <v>-41339.68642589118</v>
+        <v>-42497.03487472096</v>
       </c>
       <c r="E70">
-        <v>-45656.21905405774</v>
+        <v>-45904.82884050928</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1572,16 +1572,16 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-32342.52699697289</v>
+        <v>-31272.86188605863</v>
       </c>
       <c r="C71">
-        <v>-54909.60195181319</v>
+        <v>-55283.50924932396</v>
       </c>
       <c r="D71">
-        <v>-42245.98642589118</v>
+        <v>-43403.33487472097</v>
       </c>
       <c r="E71">
-        <v>-46562.51905405775</v>
+        <v>-46811.12884050928</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1589,16 +1589,16 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-33248.82699697289</v>
+        <v>-32179.16188605862</v>
       </c>
       <c r="C72">
-        <v>-55815.9019518132</v>
+        <v>-56189.80924932396</v>
       </c>
       <c r="D72">
-        <v>-43152.28642589117</v>
+        <v>-44309.63487472097</v>
       </c>
       <c r="E72">
-        <v>-47468.81905405775</v>
+        <v>-47717.42884050927</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1606,16 +1606,16 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-34155.12699697289</v>
+        <v>-33085.46188605863</v>
       </c>
       <c r="C73">
-        <v>-56722.20195181319</v>
+        <v>-57096.10924932396</v>
       </c>
       <c r="D73">
-        <v>-44058.58642589118</v>
+        <v>-45215.93487472097</v>
       </c>
       <c r="E73">
-        <v>-48375.11905405774</v>
+        <v>-48623.72884050928</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1623,16 +1623,16 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-35061.42699697289</v>
+        <v>-33991.76188605862</v>
       </c>
       <c r="C74">
-        <v>-57628.5019518132</v>
+        <v>-58002.40924932396</v>
       </c>
       <c r="D74">
-        <v>-44964.88642589118</v>
+        <v>-46122.23487472096</v>
       </c>
       <c r="E74">
-        <v>-49281.41905405775</v>
+        <v>-49530.02884050927</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1640,16 +1640,16 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-35967.72699697289</v>
+        <v>-34898.06188605863</v>
       </c>
       <c r="C75">
-        <v>-58534.8019518132</v>
+        <v>-58908.70924932395</v>
       </c>
       <c r="D75">
-        <v>-45871.18642589117</v>
+        <v>-47028.53487472096</v>
       </c>
       <c r="E75">
-        <v>-50187.71905405775</v>
+        <v>-50436.32884050927</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1657,16 +1657,16 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-36874.02699697289</v>
+        <v>-35804.36188605863</v>
       </c>
       <c r="C76">
-        <v>-59441.10195181319</v>
+        <v>-59815.00924932396</v>
       </c>
       <c r="D76">
-        <v>-46777.48642589117</v>
+        <v>-47934.83487472097</v>
       </c>
       <c r="E76">
-        <v>-51094.01905405775</v>
+        <v>-51342.62884050928</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1674,16 +1674,16 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-37780.32699697289</v>
+        <v>-36710.66188605862</v>
       </c>
       <c r="C77">
-        <v>-60347.4019518132</v>
+        <v>-60721.30924932396</v>
       </c>
       <c r="D77">
-        <v>-47683.78642589117</v>
+        <v>-48841.13487472096</v>
       </c>
       <c r="E77">
-        <v>-52000.31905405775</v>
+        <v>-52248.92884050927</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1691,16 +1691,16 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-38686.62699697289</v>
+        <v>-37616.96188605865</v>
       </c>
       <c r="C78">
-        <v>-61253.7019518132</v>
+        <v>-61627.60924932396</v>
       </c>
       <c r="D78">
-        <v>-48590.08642589118</v>
+        <v>-49747.43487472096</v>
       </c>
       <c r="E78">
-        <v>-52906.61905405775</v>
+        <v>-53155.22884050927</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1708,16 +1708,16 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-39592.92699697289</v>
+        <v>-38523.26188605864</v>
       </c>
       <c r="C79">
-        <v>-62160.0019518132</v>
+        <v>-62533.90924932396</v>
       </c>
       <c r="D79">
-        <v>-49496.38642589118</v>
+        <v>-50653.73487472096</v>
       </c>
       <c r="E79">
-        <v>-53812.91905405775</v>
+        <v>-54061.52884050927</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1725,16 +1725,16 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-40499.22699697288</v>
+        <v>-39429.56188605864</v>
       </c>
       <c r="C80">
-        <v>-63066.3019518132</v>
+        <v>-63440.20924932396</v>
       </c>
       <c r="D80">
-        <v>-50402.68642589118</v>
+        <v>-51560.03487472096</v>
       </c>
       <c r="E80">
-        <v>-54719.21905405774</v>
+        <v>-54967.82884050928</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1742,16 +1742,16 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-41405.52699697289</v>
+        <v>-40335.86188605864</v>
       </c>
       <c r="C81">
-        <v>-63972.60195181319</v>
+        <v>-64346.50924932396</v>
       </c>
       <c r="D81">
-        <v>-51308.98642589117</v>
+        <v>-52466.33487472095</v>
       </c>
       <c r="E81">
-        <v>-55625.51905405775</v>
+        <v>-55874.12884050928</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1759,16 +1759,16 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-42311.82699697288</v>
+        <v>-41242.16188605863</v>
       </c>
       <c r="C82">
-        <v>-64878.9019518132</v>
+        <v>-65252.80924932396</v>
       </c>
       <c r="D82">
-        <v>-52215.28642589117</v>
+        <v>-53372.63487472096</v>
       </c>
       <c r="E82">
-        <v>-56531.81905405775</v>
+        <v>-56780.42884050927</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1776,16 +1776,16 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-43218.12699697289</v>
+        <v>-42148.46188605863</v>
       </c>
       <c r="C83">
-        <v>-65785.2019518132</v>
+        <v>-66159.10924932396</v>
       </c>
       <c r="D83">
-        <v>-53121.58642589118</v>
+        <v>-54278.93487472096</v>
       </c>
       <c r="E83">
-        <v>-57438.11905405775</v>
+        <v>-57686.72884050927</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1793,16 +1793,16 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-44124.42699697288</v>
+        <v>-43054.76188605864</v>
       </c>
       <c r="C84">
-        <v>-66691.5019518132</v>
+        <v>-67065.40924932396</v>
       </c>
       <c r="D84">
-        <v>-54027.88642589118</v>
+        <v>-55185.23487472095</v>
       </c>
       <c r="E84">
-        <v>-58344.41905405775</v>
+        <v>-58593.02884050927</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1810,16 +1810,16 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-45030.72699697289</v>
+        <v>-43961.06188605863</v>
       </c>
       <c r="C85">
-        <v>-67597.80195181319</v>
+        <v>-67971.70924932396</v>
       </c>
       <c r="D85">
-        <v>-54934.18642589118</v>
+        <v>-56091.53487472096</v>
       </c>
       <c r="E85">
-        <v>-59250.71905405775</v>
+        <v>-59499.32884050928</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1827,16 +1827,16 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-45937.0269969729</v>
+        <v>-44867.36188605862</v>
       </c>
       <c r="C86">
-        <v>-68504.10195181319</v>
+        <v>-68878.00924932396</v>
       </c>
       <c r="D86">
-        <v>-55840.48642589117</v>
+        <v>-56997.83487472097</v>
       </c>
       <c r="E86">
-        <v>-60157.01905405775</v>
+        <v>-60405.62884050928</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1844,16 +1844,16 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-46843.32699697289</v>
+        <v>-45773.66188605863</v>
       </c>
       <c r="C87">
-        <v>-69410.4019518132</v>
+        <v>-69784.30924932397</v>
       </c>
       <c r="D87">
-        <v>-56746.78642589117</v>
+        <v>-57904.13487472096</v>
       </c>
       <c r="E87">
-        <v>-61063.31905405775</v>
+        <v>-61311.92884050927</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1861,16 +1861,16 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-47749.6269969729</v>
+        <v>-46679.96188605863</v>
       </c>
       <c r="C88">
-        <v>-70316.7019518132</v>
+        <v>-70690.60924932396</v>
       </c>
       <c r="D88">
-        <v>-57653.08642589118</v>
+        <v>-58810.43487472096</v>
       </c>
       <c r="E88">
-        <v>-61969.61905405775</v>
+        <v>-62218.22884050927</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1878,16 +1878,16 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>-48655.92699697289</v>
+        <v>-47586.26188605864</v>
       </c>
       <c r="C89">
-        <v>-71223.0019518132</v>
+        <v>-71596.90924932396</v>
       </c>
       <c r="D89">
-        <v>-58559.38642589116</v>
+        <v>-59716.73487472095</v>
       </c>
       <c r="E89">
-        <v>-62875.91905405775</v>
+        <v>-63124.52884050927</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1895,16 +1895,16 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-49562.22699697289</v>
+        <v>-48492.56188605863</v>
       </c>
       <c r="C90">
-        <v>-72129.30195181319</v>
+        <v>-72503.20924932396</v>
       </c>
       <c r="D90">
-        <v>-59465.68642589117</v>
+        <v>-60623.03487472096</v>
       </c>
       <c r="E90">
-        <v>-63782.21905405774</v>
+        <v>-64030.82884050927</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1912,16 +1912,16 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-50468.52699697288</v>
+        <v>-49398.86188605863</v>
       </c>
       <c r="C91">
-        <v>-73035.60195181319</v>
+        <v>-73409.50924932396</v>
       </c>
       <c r="D91">
-        <v>-60371.98642589117</v>
+        <v>-61529.33487472097</v>
       </c>
       <c r="E91">
-        <v>-64688.51905405775</v>
+        <v>-64937.12884050928</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1929,16 +1929,16 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-51374.82699697289</v>
+        <v>-50305.16188605863</v>
       </c>
       <c r="C92">
-        <v>-73941.9019518132</v>
+        <v>-74315.80924932397</v>
       </c>
       <c r="D92">
-        <v>-61278.28642589116</v>
+        <v>-62435.63487472097</v>
       </c>
       <c r="E92">
-        <v>-65594.81905405773</v>
+        <v>-65843.42884050928</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1946,16 +1946,16 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-52281.12699697288</v>
+        <v>-51211.46188605863</v>
       </c>
       <c r="C93">
-        <v>-74848.2019518132</v>
+        <v>-75222.10924932396</v>
       </c>
       <c r="D93">
-        <v>-62184.58642589118</v>
+        <v>-63341.93487472095</v>
       </c>
       <c r="E93">
-        <v>-66501.11905405775</v>
+        <v>-66749.72884050927</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1963,16 +1963,16 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-53187.42699697288</v>
+        <v>-52117.76188605863</v>
       </c>
       <c r="C94">
-        <v>-75754.5019518132</v>
+        <v>-76128.40924932396</v>
       </c>
       <c r="D94">
-        <v>-63090.88642589117</v>
+        <v>-64248.23487472096</v>
       </c>
       <c r="E94">
-        <v>-67407.41905405775</v>
+        <v>-67656.02884050927</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1980,16 +1980,16 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-54093.72699697288</v>
+        <v>-53024.06188605863</v>
       </c>
       <c r="C95">
-        <v>-76660.80195181319</v>
+        <v>-77034.70924932396</v>
       </c>
       <c r="D95">
-        <v>-63997.18642589117</v>
+        <v>-65154.53487472095</v>
       </c>
       <c r="E95">
-        <v>-68313.71905405774</v>
+        <v>-68562.32884050928</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -1997,16 +1997,16 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-55000.02699697288</v>
+        <v>-53930.36188605863</v>
       </c>
       <c r="C96">
-        <v>-77567.10195181319</v>
+        <v>-77941.00924932396</v>
       </c>
       <c r="D96">
-        <v>-64903.48642589117</v>
+        <v>-66060.83487472095</v>
       </c>
       <c r="E96">
-        <v>-69220.01905405775</v>
+        <v>-69468.62884050926</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2014,16 +2014,16 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-55906.32699697286</v>
+        <v>-54836.66188605863</v>
       </c>
       <c r="C97">
-        <v>-78473.4019518132</v>
+        <v>-78847.30924932397</v>
       </c>
       <c r="D97">
-        <v>-65809.78642589116</v>
+        <v>-66967.13487472097</v>
       </c>
       <c r="E97">
-        <v>-70126.31905405773</v>
+        <v>-70374.92884050928</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2031,16 +2031,16 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-56812.62699697287</v>
+        <v>-55742.96188605863</v>
       </c>
       <c r="C98">
-        <v>-79379.7019518132</v>
+        <v>-79753.60924932396</v>
       </c>
       <c r="D98">
-        <v>-66716.08642589118</v>
+        <v>-67873.43487472096</v>
       </c>
       <c r="E98">
-        <v>-71032.61905405775</v>
+        <v>-71281.22884050927</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2048,16 +2048,16 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-57718.92699697288</v>
+        <v>-56649.26188605864</v>
       </c>
       <c r="C99">
-        <v>-80286.0019518132</v>
+        <v>-80659.90924932396</v>
       </c>
       <c r="D99">
-        <v>-67622.38642589118</v>
+        <v>-68779.73487472096</v>
       </c>
       <c r="E99">
-        <v>-71938.91905405775</v>
+        <v>-72187.52884050927</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2065,16 +2065,16 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>-58625.22699697288</v>
+        <v>-57555.56188605864</v>
       </c>
       <c r="C100">
-        <v>-81192.30195181319</v>
+        <v>-81566.20924932396</v>
       </c>
       <c r="D100">
-        <v>-68528.68642589117</v>
+        <v>-69686.03487472096</v>
       </c>
       <c r="E100">
-        <v>-72845.21905405774</v>
+        <v>-73093.82884050928</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2082,16 +2082,16 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-59531.52699697288</v>
+        <v>-58461.86188605864</v>
       </c>
       <c r="C101">
-        <v>-82098.60195181319</v>
+        <v>-82472.50924932396</v>
       </c>
       <c r="D101">
-        <v>-69434.98642589117</v>
+        <v>-70592.33487472097</v>
       </c>
       <c r="E101">
-        <v>-73751.51905405775</v>
+        <v>-74000.12884050928</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2099,16 +2099,16 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-60437.82699697289</v>
+        <v>-59368.16188605862</v>
       </c>
       <c r="C102">
-        <v>-83004.9019518132</v>
+        <v>-83378.80924932395</v>
       </c>
       <c r="D102">
-        <v>-70341.28642589117</v>
+        <v>-71498.63487472097</v>
       </c>
       <c r="E102">
-        <v>-74657.81905405775</v>
+        <v>-74906.42884050927</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2116,16 +2116,16 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-61344.12699697288</v>
+        <v>-60274.46188605863</v>
       </c>
       <c r="C103">
-        <v>-83911.2019518132</v>
+        <v>-84285.10924932396</v>
       </c>
       <c r="D103">
-        <v>-71247.58642589118</v>
+        <v>-72404.93487472096</v>
       </c>
       <c r="E103">
-        <v>-75564.11905405775</v>
+        <v>-75812.72884050927</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2133,16 +2133,16 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-62250.42699697288</v>
+        <v>-61180.76188605864</v>
       </c>
       <c r="C104">
-        <v>-84817.5019518132</v>
+        <v>-85191.40924932396</v>
       </c>
       <c r="D104">
-        <v>-72153.88642589116</v>
+        <v>-73311.23487472096</v>
       </c>
       <c r="E104">
-        <v>-76470.41905405775</v>
+        <v>-76719.02884050927</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2150,16 +2150,16 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-63156.72699697289</v>
+        <v>-62087.06188605863</v>
       </c>
       <c r="C105">
-        <v>-85723.80195181319</v>
+        <v>-86097.70924932396</v>
       </c>
       <c r="D105">
-        <v>-73060.18642589117</v>
+        <v>-74217.53487472096</v>
       </c>
       <c r="E105">
-        <v>-77376.71905405774</v>
+        <v>-77625.32884050928</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2167,16 +2167,16 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-64063.02699697288</v>
+        <v>-62993.36188605863</v>
       </c>
       <c r="C106">
-        <v>-86630.10195181319</v>
+        <v>-87004.00924932396</v>
       </c>
       <c r="D106">
-        <v>-73966.48642589117</v>
+        <v>-75123.83487472095</v>
       </c>
       <c r="E106">
-        <v>-78283.01905405775</v>
+        <v>-78531.62884050928</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2184,16 +2184,16 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-64969.32699697289</v>
+        <v>-63899.66188605863</v>
       </c>
       <c r="C107">
-        <v>-87536.4019518132</v>
+        <v>-87910.30924932395</v>
       </c>
       <c r="D107">
-        <v>-74872.78642589116</v>
+        <v>-76030.13487472097</v>
       </c>
       <c r="E107">
-        <v>-79189.31905405775</v>
+        <v>-79437.92884050928</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2201,16 +2201,16 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>-65875.62699697287</v>
+        <v>-64805.96188605863</v>
       </c>
       <c r="C108">
-        <v>-88442.7019518132</v>
+        <v>-88816.60924932396</v>
       </c>
       <c r="D108">
-        <v>-75779.08642589118</v>
+        <v>-76936.43487472096</v>
       </c>
       <c r="E108">
-        <v>-80095.61905405775</v>
+        <v>-80344.22884050927</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2218,16 +2218,16 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>-66781.92699697289</v>
+        <v>-65712.26188605864</v>
       </c>
       <c r="C109">
-        <v>-89349.0019518132</v>
+        <v>-89722.90924932396</v>
       </c>
       <c r="D109">
-        <v>-76685.38642589116</v>
+        <v>-77842.73487472096</v>
       </c>
       <c r="E109">
-        <v>-81001.91905405775</v>
+        <v>-81250.52884050927</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2235,16 +2235,16 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-67688.22699697289</v>
+        <v>-66618.56188605863</v>
       </c>
       <c r="C110">
-        <v>-90255.30195181319</v>
+        <v>-90629.20924932396</v>
       </c>
       <c r="D110">
-        <v>-77591.68642589118</v>
+        <v>-78749.03487472096</v>
       </c>
       <c r="E110">
-        <v>-81908.21905405776</v>
+        <v>-82156.82884050928</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2252,16 +2252,16 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>-68594.5269969729</v>
+        <v>-67524.86188605863</v>
       </c>
       <c r="C111">
-        <v>-91161.60195181319</v>
+        <v>-91535.50924932396</v>
       </c>
       <c r="D111">
-        <v>-78497.98642589117</v>
+        <v>-79655.33487472095</v>
       </c>
       <c r="E111">
-        <v>-82814.51905405775</v>
+        <v>-83063.12884050928</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2269,16 +2269,16 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>-69500.8269969729</v>
+        <v>-68431.16188605863</v>
       </c>
       <c r="C112">
-        <v>-92067.9019518132</v>
+        <v>-92441.80924932395</v>
       </c>
       <c r="D112">
-        <v>-79404.28642589117</v>
+        <v>-80561.63487472094</v>
       </c>
       <c r="E112">
-        <v>-83720.81905405775</v>
+        <v>-83969.42884050927</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2286,16 +2286,16 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>-70407.12699697289</v>
+        <v>-69337.46188605863</v>
       </c>
       <c r="C113">
-        <v>-92974.2019518132</v>
+        <v>-93348.10924932396</v>
       </c>
       <c r="D113">
-        <v>-80310.58642589118</v>
+        <v>-81467.93487472096</v>
       </c>
       <c r="E113">
-        <v>-84627.11905405775</v>
+        <v>-84875.72884050927</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2303,16 +2303,16 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>-71313.42699697289</v>
+        <v>-70243.76188605864</v>
       </c>
       <c r="C114">
-        <v>-93880.5019518132</v>
+        <v>-94254.40924932396</v>
       </c>
       <c r="D114">
-        <v>-81216.88642589116</v>
+        <v>-82374.23487472096</v>
       </c>
       <c r="E114">
-        <v>-85533.41905405775</v>
+        <v>-85782.02884050929</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2320,16 +2320,16 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>-72219.72699697288</v>
+        <v>-71150.06188605863</v>
       </c>
       <c r="C115">
-        <v>-94786.80195181321</v>
+        <v>-95160.70924932396</v>
       </c>
       <c r="D115">
-        <v>-82123.18642589115</v>
+        <v>-83280.53487472096</v>
       </c>
       <c r="E115">
-        <v>-86439.71905405774</v>
+        <v>-86688.32884050928</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2337,16 +2337,16 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-73126.02699697288</v>
+        <v>-72056.36188605863</v>
       </c>
       <c r="C116">
-        <v>-95693.10195181319</v>
+        <v>-96067.00924932396</v>
       </c>
       <c r="D116">
-        <v>-83029.48642589117</v>
+        <v>-84186.83487472095</v>
       </c>
       <c r="E116">
-        <v>-87346.01905405775</v>
+        <v>-87594.62884050926</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2354,16 +2354,16 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>-74032.3269969729</v>
+        <v>-72962.66188605863</v>
       </c>
       <c r="C117">
-        <v>-96599.4019518132</v>
+        <v>-96973.30924932395</v>
       </c>
       <c r="D117">
-        <v>-83935.78642589116</v>
+        <v>-85093.13487472096</v>
       </c>
       <c r="E117">
-        <v>-88252.31905405775</v>
+        <v>-88500.92884050928</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2371,16 +2371,16 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>-74938.62699697289</v>
+        <v>-73868.96188605863</v>
       </c>
       <c r="C118">
-        <v>-97505.7019518132</v>
+        <v>-97879.60924932396</v>
       </c>
       <c r="D118">
-        <v>-84842.08642589116</v>
+        <v>-85999.43487472096</v>
       </c>
       <c r="E118">
-        <v>-89158.61905405775</v>
+        <v>-89407.22884050927</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2388,16 +2388,16 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>-75844.92699697288</v>
+        <v>-74775.26188605864</v>
       </c>
       <c r="C119">
-        <v>-98412.0019518132</v>
+        <v>-98785.90924932396</v>
       </c>
       <c r="D119">
-        <v>-85748.38642589116</v>
+        <v>-86905.73487472096</v>
       </c>
       <c r="E119">
-        <v>-90064.91905405774</v>
+        <v>-90313.52884050927</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2405,16 +2405,16 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-76751.22699697289</v>
+        <v>-75681.56188605865</v>
       </c>
       <c r="C120">
-        <v>-99318.30195181319</v>
+        <v>-99692.20924932396</v>
       </c>
       <c r="D120">
-        <v>-86654.68642589117</v>
+        <v>-87812.03487472095</v>
       </c>
       <c r="E120">
-        <v>-90971.21905405774</v>
+        <v>-91219.82884050929</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2422,16 +2422,16 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>-77657.52699697288</v>
+        <v>-76587.86188605863</v>
       </c>
       <c r="C121">
-        <v>-100224.6019518132</v>
+        <v>-100598.509249324</v>
       </c>
       <c r="D121">
-        <v>-87560.98642589117</v>
+        <v>-88718.33487472095</v>
       </c>
       <c r="E121">
-        <v>-91877.51905405775</v>
+        <v>-92126.12884050926</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2439,16 +2439,16 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>-78563.82699697289</v>
+        <v>-77494.16188605863</v>
       </c>
       <c r="C122">
-        <v>-101130.9019518132</v>
+        <v>-101504.809249324</v>
       </c>
       <c r="D122">
-        <v>-88467.28642589117</v>
+        <v>-89624.63487472096</v>
       </c>
       <c r="E122">
-        <v>-92783.81905405776</v>
+        <v>-93032.42884050927</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2456,16 +2456,16 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>-79470.12699697287</v>
+        <v>-78400.46188605863</v>
       </c>
       <c r="C123">
-        <v>-102037.2019518132</v>
+        <v>-102411.109249324</v>
       </c>
       <c r="D123">
-        <v>-89373.58642589118</v>
+        <v>-90530.93487472096</v>
       </c>
       <c r="E123">
-        <v>-93690.11905405775</v>
+        <v>-93938.72884050928</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2473,16 +2473,16 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>-80376.42699697288</v>
+        <v>-79306.76188605864</v>
       </c>
       <c r="C124">
-        <v>-102943.5019518132</v>
+        <v>-103317.409249324</v>
       </c>
       <c r="D124">
-        <v>-90279.88642589116</v>
+        <v>-91437.23487472096</v>
       </c>
       <c r="E124">
-        <v>-94596.41905405774</v>
+        <v>-94845.02884050927</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2490,16 +2490,16 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>-81282.72699697288</v>
+        <v>-80213.06188605864</v>
       </c>
       <c r="C125">
-        <v>-103849.8019518132</v>
+        <v>-104223.709249324</v>
       </c>
       <c r="D125">
-        <v>-91186.18642589117</v>
+        <v>-92343.53487472096</v>
       </c>
       <c r="E125">
-        <v>-95502.71905405774</v>
+        <v>-95751.32884050928</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2507,16 +2507,16 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>-82189.02699697288</v>
+        <v>-81119.36188605864</v>
       </c>
       <c r="C126">
-        <v>-104756.1019518132</v>
+        <v>-105130.009249324</v>
       </c>
       <c r="D126">
-        <v>-92092.48642589117</v>
+        <v>-93249.83487472095</v>
       </c>
       <c r="E126">
-        <v>-96409.01905405773</v>
+        <v>-96657.62884050928</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2524,16 +2524,16 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>-83095.32699697289</v>
+        <v>-82025.66188605863</v>
       </c>
       <c r="C127">
-        <v>-105662.4019518132</v>
+        <v>-106036.309249324</v>
       </c>
       <c r="D127">
-        <v>-92998.78642589119</v>
+        <v>-94156.13487472096</v>
       </c>
       <c r="E127">
-        <v>-97315.31905405775</v>
+        <v>-97563.92884050927</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2541,16 +2541,16 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>-84001.62699697287</v>
+        <v>-82931.96188605863</v>
       </c>
       <c r="C128">
-        <v>-106568.7019518132</v>
+        <v>-106942.609249324</v>
       </c>
       <c r="D128">
-        <v>-93905.08642589118</v>
+        <v>-95062.43487472096</v>
       </c>
       <c r="E128">
-        <v>-98221.61905405775</v>
+        <v>-98470.22884050928</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2558,16 +2558,16 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>-84907.92699697288</v>
+        <v>-83838.26188605864</v>
       </c>
       <c r="C129">
-        <v>-107475.0019518132</v>
+        <v>-107848.909249324</v>
       </c>
       <c r="D129">
-        <v>-94811.38642589118</v>
+        <v>-95968.73487472096</v>
       </c>
       <c r="E129">
-        <v>-99127.91905405774</v>
+        <v>-99376.52884050927</v>
       </c>
     </row>
   </sheetData>
